--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ghrh-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ghrh-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ghrh</t>
+  </si>
+  <si>
+    <t>Vipr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ghrh</t>
-  </si>
-  <si>
-    <t>Vipr1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02323866666666667</v>
+        <v>0.09527133333333333</v>
       </c>
       <c r="H2">
-        <v>0.069716</v>
+        <v>0.285814</v>
       </c>
       <c r="I2">
-        <v>0.1960903439934745</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1960903439934745</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287673666666667</v>
+        <v>0.8059226666666667</v>
       </c>
       <c r="N2">
-        <v>3.863021</v>
+        <v>2.417768</v>
       </c>
       <c r="O2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="P2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="Q2">
-        <v>0.02992381911511111</v>
+        <v>0.07678132701688889</v>
       </c>
       <c r="R2">
-        <v>0.269314372036</v>
+        <v>0.6910319431520001</v>
       </c>
       <c r="S2">
-        <v>0.0793611137762221</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="T2">
-        <v>0.0793611137762221</v>
+        <v>0.1314814101815314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,170 +593,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02323866666666667</v>
+        <v>0.09527133333333333</v>
       </c>
       <c r="H3">
-        <v>0.069716</v>
+        <v>0.285814</v>
       </c>
       <c r="I3">
-        <v>0.1960903439934745</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1960903439934745</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.89399</v>
+        <v>5.323633333333333</v>
       </c>
       <c r="N3">
-        <v>5.68197</v>
+        <v>15.9709</v>
       </c>
       <c r="O3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="P3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184687</v>
       </c>
       <c r="Q3">
-        <v>0.04401380228</v>
+        <v>0.5071896458444445</v>
       </c>
       <c r="R3">
-        <v>0.39612422052</v>
+        <v>4.5647068126</v>
       </c>
       <c r="S3">
-        <v>0.1167292302172524</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="T3">
-        <v>0.1167292302172524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.09527133333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.285814</v>
-      </c>
-      <c r="I4">
-        <v>0.8039096560065254</v>
-      </c>
-      <c r="J4">
-        <v>0.8039096560065255</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.287673666666667</v>
-      </c>
-      <c r="N4">
-        <v>3.863021</v>
-      </c>
-      <c r="O4">
-        <v>0.4047170919281118</v>
-      </c>
-      <c r="P4">
-        <v>0.4047170919281118</v>
-      </c>
-      <c r="Q4">
-        <v>0.1226783871215555</v>
-      </c>
-      <c r="R4">
-        <v>1.104105484094</v>
-      </c>
-      <c r="S4">
-        <v>0.3253559781518897</v>
-      </c>
-      <c r="T4">
-        <v>0.3253559781518898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.09527133333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.285814</v>
-      </c>
-      <c r="I5">
-        <v>0.8039096560065254</v>
-      </c>
-      <c r="J5">
-        <v>0.8039096560065255</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>1.89399</v>
-      </c>
-      <c r="N5">
-        <v>5.68197</v>
-      </c>
-      <c r="O5">
-        <v>0.5952829080718882</v>
-      </c>
-      <c r="P5">
-        <v>0.5952829080718882</v>
-      </c>
-      <c r="Q5">
-        <v>0.18044295262</v>
-      </c>
-      <c r="R5">
-        <v>1.62398657358</v>
-      </c>
-      <c r="S5">
-        <v>0.4785536778546358</v>
-      </c>
-      <c r="T5">
-        <v>0.4785536778546358</v>
+        <v>0.8685185898184687</v>
       </c>
     </row>
   </sheetData>
